--- a/Parcial 2/02 Tablas dinamicas/03 Datos de Cosechas Soluciones.xlsx
+++ b/Parcial 2/02 Tablas dinamicas/03 Datos de Cosechas Soluciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 2\02 Tablas dinamicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7AFEF6-11D6-4EFB-BF04-B9CF91A75F81}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B620AA-B672-4564-9917-F32BBC938815}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="8235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos de Cosechas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -190,24 +190,21 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="10">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -267,34 +264,22 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,19 +327,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -370,19 +343,23 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -431,7 +408,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10365786629612475"/>
+          <c:x val="0.10789746671173257"/>
           <c:y val="0.14249781277340332"/>
           <c:w val="0.68646142761566564"/>
           <c:h val="0.6076742490522018"/>
@@ -450,7 +427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Compras</c:v>
+                  <c:v>Suma de Ventas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -496,19 +473,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>49361.644337290578</c:v>
+                  <c:v>53977.202673421438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39479.903561510066</c:v>
+                  <c:v>37286.324655903802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56027.497177037883</c:v>
+                  <c:v>53711.722159489727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50415.021210364081</c:v>
+                  <c:v>52923.673207800537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50884.273812067011</c:v>
+                  <c:v>48650.746177556699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,7 +505,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Suma de Ventas</c:v>
+                  <c:v>Suma de Compras</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -574,26 +551,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>53977.202673421438</c:v>
+                  <c:v>49361.644337290578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37286.324655903802</c:v>
+                  <c:v>39479.903561510066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53711.722159489727</c:v>
+                  <c:v>56027.497177037883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52923.673207800537</c:v>
+                  <c:v>50415.021210364081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48650.746177556699</c:v>
+                  <c:v>50884.273812067011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77F3-4207-97C1-4A89178EC4F8}"/>
+              <c16:uniqueId val="{00000000-072A-4745-8E60-1402BEF057AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3388,13 +3365,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>80962</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>164306</xdr:rowOff>
+      <xdr:rowOff>173831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1366837</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>21431</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7554,7 +7531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61765C63-12B2-4622-AF71-BB6C10514B47}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61765C63-12B2-4622-AF71-BB6C10514B47}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -7608,11 +7585,11 @@
     </i>
   </colItems>
   <dataFields count="2">
+    <dataField name="Suma de Ventas" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Suma de Compras" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Ventas" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7621,7 +7598,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7644,7 +7621,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90B0A7BE-1DA7-4D46-895A-7F763C7BC2CB}" name="TablaDinámica1" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="compra/venta" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" colHeaderCaption="Tipos de Granos">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90B0A7BE-1DA7-4D46-895A-7F763C7BC2CB}" name="TablaDinámica1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="compra/venta" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" colHeaderCaption="Tipos de Granos">
   <location ref="A3:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -7773,7 +7750,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C0E06AA-04AD-47D9-A55C-9C6988B28978}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Paises">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C0E06AA-04AD-47D9-A55C-9C6988B28978}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Paises">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -7818,19 +7795,19 @@
     <dataField name="Máx. de Solicitudes" fld="4" subtotal="max" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="14">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7858,7 +7835,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5649E1DA-E526-4A96-BF16-F5970BA86E1F}" name="TablaDinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Grano" colHeaderCaption="Paises">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5649E1DA-E526-4A96-BF16-F5970BA86E1F}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Grano" colHeaderCaption="Paises">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -7944,7 +7921,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8949918E-D703-47BB-B2F0-D2B47437DD72}" name="TablaDinámica4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8949918E-D703-47BB-B2F0-D2B47437DD72}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -8001,7 +7978,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8383B1B-1BE3-44DD-BF04-81CAA393BCD9}" name="TablaDinámica5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8383B1B-1BE3-44DD-BF04-81CAA393BCD9}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -8087,15 +8064,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BBF3ADE4-7A4C-4392-85A3-C67C86B53133}" name="Tabla1" displayName="Tabla1" ref="A1:F501" totalsRowShown="0" dataDxfId="0" dataCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BBF3ADE4-7A4C-4392-85A3-C67C86B53133}" name="Tabla1" displayName="Tabla1" ref="A1:F501" totalsRowShown="0" dataDxfId="9" dataCellStyle="Millares">
   <autoFilter ref="A1:F501" xr:uid="{CB6949E1-A295-4EF3-8E74-3FC63E514689}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9501C739-95AF-44FC-BA0E-228014DD876B}" name="País"/>
     <tableColumn id="2" xr3:uid="{A11D107A-9FC2-4B14-9FBF-277DAAC544E9}" name="Grano"/>
-    <tableColumn id="3" xr3:uid="{979A6953-CCBA-47FF-AC8E-2EE0059E1139}" name="Compras" dataDxfId="4" dataCellStyle="Millares"/>
-    <tableColumn id="4" xr3:uid="{82139CEB-E681-46F1-9AF5-9CAFF6E82154}" name="Ventas" dataDxfId="3" dataCellStyle="Millares"/>
-    <tableColumn id="5" xr3:uid="{1EF44023-DD44-4006-B9FA-8405902ACD77}" name="Solicitudes" dataDxfId="2" dataCellStyle="Millares"/>
-    <tableColumn id="6" xr3:uid="{F0F8E799-863F-45F5-8289-0483ED2CA88B}" name="Otros" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{979A6953-CCBA-47FF-AC8E-2EE0059E1139}" name="Compras" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{82139CEB-E681-46F1-9AF5-9CAFF6E82154}" name="Ventas" dataDxfId="7" dataCellStyle="Millares"/>
+    <tableColumn id="5" xr3:uid="{1EF44023-DD44-4006-B9FA-8405902ACD77}" name="Solicitudes" dataDxfId="6" dataCellStyle="Millares"/>
+    <tableColumn id="6" xr3:uid="{F0F8E799-863F-45F5-8289-0483ED2CA88B}" name="Otros" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8424,7 +8401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -18479,15 +18456,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E701BDD2-4AC8-4C00-A811-FFBB04833AD5}">
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C40" sqref="C39:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="20.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.46484375" bestFit="1" customWidth="1"/>
@@ -18498,10 +18475,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -18509,10 +18486,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="5">
+        <v>53977.202673421438</v>
+      </c>
+      <c r="C4" s="5">
         <v>49361.644337290578</v>
-      </c>
-      <c r="C4" s="5">
-        <v>53977.202673421438</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -18520,10 +18497,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
+        <v>37286.324655903802</v>
+      </c>
+      <c r="C5" s="5">
         <v>39479.903561510066</v>
-      </c>
-      <c r="C5" s="5">
-        <v>37286.324655903802</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -18531,10 +18508,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="5">
+        <v>53711.722159489727</v>
+      </c>
+      <c r="C6" s="5">
         <v>56027.497177037883</v>
-      </c>
-      <c r="C6" s="5">
-        <v>53711.722159489727</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -18542,10 +18519,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
+        <v>52923.673207800537</v>
+      </c>
+      <c r="C7" s="5">
         <v>50415.021210364081</v>
-      </c>
-      <c r="C7" s="5">
-        <v>52923.673207800537</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -18553,10 +18530,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5">
+        <v>48650.746177556699</v>
+      </c>
+      <c r="C8" s="5">
         <v>50884.273812067011</v>
-      </c>
-      <c r="C8" s="5">
-        <v>48650.746177556699</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -18564,10 +18541,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="5">
+        <v>246549.6688741722</v>
+      </c>
+      <c r="C9" s="5">
         <v>246168.34009826957</v>
-      </c>
-      <c r="C9" s="5">
-        <v>246549.6688741722</v>
       </c>
     </row>
   </sheetData>
@@ -19141,6 +19118,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -19254,32 +19246,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47F1CCC-34AD-4885-87A9-C94135387DBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F28AABEB-2C56-4466-B830-09CA7841A9DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -19294,9 +19264,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F28AABEB-2C56-4466-B830-09CA7841A9DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47F1CCC-34AD-4885-87A9-C94135387DBF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
